--- a/data/trans_orig/P14B20-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B20-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7778FABD-4FC7-4EBC-9A0B-D755F03B0EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82456F48-BBE7-461F-8759-54CD052981B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{60E19691-C402-412C-B2B6-645A79BA3075}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B0E988A-DC15-4E97-BFC0-C7D05B47F7FC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -114,19 +114,19 @@
     <t>55,18%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
   </si>
   <si>
     <t>48,11%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
   </si>
   <si>
     <t>67,85%</t>
@@ -135,19 +135,19 @@
     <t>44,82%</t>
   </si>
   <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
   </si>
   <si>
     <t>51,89%</t>
   </si>
   <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -156,55 +156,55 @@
     <t>33,48%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
   </si>
   <si>
     <t>45,17%</t>
   </si>
   <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
   </si>
   <si>
     <t>39,52%</t>
   </si>
   <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
   </si>
   <si>
     <t>66,52%</t>
   </si>
   <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
   </si>
   <si>
     <t>54,83%</t>
   </si>
   <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
   </si>
   <si>
     <t>60,48%</t>
   </si>
   <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -225,10 +225,10 @@
     <t>63,0%</t>
   </si>
   <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
   </si>
   <si>
     <t>51,23%</t>
@@ -246,10 +246,10 @@
     <t>37,0%</t>
   </si>
   <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -264,19 +264,19 @@
     <t>45,75%</t>
   </si>
   <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
   </si>
   <si>
     <t>50,95%</t>
   </si>
   <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
   </si>
   <si>
     <t>26,12%</t>
@@ -288,73 +288,73 @@
     <t>54,25%</t>
   </si>
   <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
   </si>
   <si>
     <t>49,05%</t>
   </si>
   <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
   </si>
   <si>
     <t>43,1%</t>
   </si>
   <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
   </si>
   <si>
     <t>51,38%</t>
   </si>
   <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
   </si>
   <si>
     <t>48,64%</t>
   </si>
   <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
   </si>
   <si>
     <t>56,9%</t>
   </si>
   <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
   </si>
   <si>
     <t>48,62%</t>
   </si>
   <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
   </si>
   <si>
     <t>51,36%</t>
   </si>
   <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -387,166 +387,166 @@
     <t>32,07%</t>
   </si>
   <si>
-    <t>82,57%</t>
+    <t>77,71%</t>
   </si>
   <si>
     <t>54,76%</t>
   </si>
   <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
   </si>
   <si>
     <t>49,74%</t>
   </si>
   <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
   </si>
   <si>
     <t>67,93%</t>
   </si>
   <si>
-    <t>17,43%</t>
+    <t>22,29%</t>
   </si>
   <si>
     <t>45,24%</t>
   </si>
   <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
   </si>
   <si>
     <t>50,26%</t>
   </si>
   <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
   </si>
   <si>
     <t>24,49%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
   </si>
   <si>
     <t>16,93%</t>
   </si>
   <si>
-    <t>53,4%</t>
+    <t>62,69%</t>
   </si>
   <si>
     <t>21,45%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
   </si>
   <si>
     <t>75,51%</t>
   </si>
   <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
   </si>
   <si>
     <t>83,07%</t>
   </si>
   <si>
-    <t>46,6%</t>
+    <t>37,31%</t>
   </si>
   <si>
     <t>78,55%</t>
   </si>
   <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
   </si>
   <si>
     <t>33,26%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
   </si>
   <si>
     <t>23,24%</t>
   </si>
   <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
   </si>
   <si>
     <t>27,87%</t>
   </si>
   <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
   </si>
   <si>
     <t>66,74%</t>
   </si>
   <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
   </si>
   <si>
     <t>76,76%</t>
   </si>
   <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>72,13%</t>
   </si>
   <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
   </si>
   <si>
     <t>28,84%</t>
   </si>
   <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
   </si>
   <si>
     <t>33,74%</t>
   </si>
   <si>
-    <t>20,39%</t>
+    <t>20,23%</t>
   </si>
   <si>
     <t>51,3%</t>
@@ -555,19 +555,19 @@
     <t>31,68%</t>
   </si>
   <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
   </si>
   <si>
     <t>71,16%</t>
   </si>
   <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
   </si>
   <si>
     <t>66,26%</t>
@@ -576,16 +576,16 @@
     <t>48,7%</t>
   </si>
   <si>
-    <t>79,61%</t>
+    <t>79,77%</t>
   </si>
   <si>
     <t>68,32%</t>
   </si>
   <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
   </si>
 </sst>
 </file>
@@ -997,7 +997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC24AED0-37A1-404D-8422-8E83C51AF11A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8B1FF6-6F6A-4283-8BE5-E287DC140828}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2060,7 +2060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB76E380-5C54-4AD0-BCCC-AA29B7B9183D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3994C064-B351-4A59-ABE0-3FE2DB07BD9E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B20-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B20-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82456F48-BBE7-461F-8759-54CD052981B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5173F562-EBE7-48BB-BFB6-FE40F065ECA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B0E988A-DC15-4E97-BFC0-C7D05B47F7FC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{70778EB9-8CC9-485F-89B3-9217E3E035D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="181">
   <si>
     <t>Población cuyas hemorroides le limita en 2012 (Tasa respuesta: 1,15%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -105,7 +105,7 @@
     <t>66,31%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>32,15%</t>
@@ -123,10 +123,10 @@
     <t>48,11%</t>
   </si>
   <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
   </si>
   <si>
     <t>67,85%</t>
@@ -144,70 +144,70 @@
     <t>51,89%</t>
   </si>
   <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>33,48%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
   </si>
   <si>
     <t>45,17%</t>
   </si>
   <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
   </si>
   <si>
     <t>39,52%</t>
   </si>
   <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
   </si>
   <si>
     <t>66,52%</t>
   </si>
   <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>54,83%</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
   </si>
   <si>
     <t>60,48%</t>
   </si>
   <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>48,77%</t>
@@ -216,19 +216,16 @@
     <t>67,5%</t>
   </si>
   <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
+    <t>91,91%</t>
   </si>
   <si>
     <t>63,0%</t>
   </si>
   <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
   </si>
   <si>
     <t>51,23%</t>
@@ -237,19 +234,16 @@
     <t>32,5%</t>
   </si>
   <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
+    <t>8,09%</t>
   </si>
   <si>
     <t>37,0%</t>
   </si>
   <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -264,19 +258,19 @@
     <t>45,75%</t>
   </si>
   <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
   </si>
   <si>
     <t>50,95%</t>
   </si>
   <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
   </si>
   <si>
     <t>26,12%</t>
@@ -288,79 +282,79 @@
     <t>54,25%</t>
   </si>
   <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
   </si>
   <si>
     <t>49,05%</t>
   </si>
   <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
   </si>
   <si>
     <t>43,1%</t>
   </si>
   <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
   </si>
   <si>
     <t>51,38%</t>
   </si>
   <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
   </si>
   <si>
     <t>48,64%</t>
   </si>
   <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
   </si>
   <si>
     <t>56,9%</t>
   </si>
   <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
   </si>
   <si>
     <t>48,62%</t>
   </si>
   <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
   </si>
   <si>
     <t>51,36%</t>
   </si>
   <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyas hemorroides le limita en 2015 (Tasa respuesta: 1,07%)</t>
+    <t>Población cuyas hemorroides le limita en 2016 (Tasa respuesta: 1,07%)</t>
   </si>
   <si>
     <t>31,06%</t>
@@ -387,205 +381,205 @@
     <t>32,07%</t>
   </si>
   <si>
-    <t>77,71%</t>
+    <t>82,67%</t>
   </si>
   <si>
     <t>54,76%</t>
   </si>
   <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
   </si>
   <si>
     <t>49,74%</t>
   </si>
   <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
   </si>
   <si>
     <t>67,93%</t>
   </si>
   <si>
-    <t>22,29%</t>
+    <t>17,33%</t>
   </si>
   <si>
     <t>45,24%</t>
   </si>
   <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
   </si>
   <si>
     <t>50,26%</t>
   </si>
   <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
   </si>
   <si>
     <t>24,49%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
   </si>
   <si>
     <t>16,93%</t>
   </si>
   <si>
-    <t>62,69%</t>
+    <t>49,37%</t>
   </si>
   <si>
     <t>21,45%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
   </si>
   <si>
     <t>75,51%</t>
   </si>
   <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
   </si>
   <si>
     <t>83,07%</t>
   </si>
   <si>
-    <t>37,31%</t>
+    <t>50,63%</t>
   </si>
   <si>
     <t>78,55%</t>
   </si>
   <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
   <si>
     <t>33,26%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
   </si>
   <si>
     <t>23,24%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
   </si>
   <si>
     <t>27,87%</t>
   </si>
   <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
   </si>
   <si>
     <t>66,74%</t>
   </si>
   <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
   </si>
   <si>
     <t>76,76%</t>
   </si>
   <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
   </si>
   <si>
     <t>72,13%</t>
   </si>
   <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
   </si>
   <si>
     <t>28,84%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
   </si>
   <si>
     <t>33,74%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
   </si>
   <si>
     <t>31,68%</t>
   </si>
   <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
   </si>
   <si>
     <t>71,16%</t>
   </si>
   <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
   </si>
   <si>
     <t>66,26%</t>
   </si>
   <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
   </si>
   <si>
     <t>68,32%</t>
   </si>
   <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
   </si>
 </sst>
 </file>
@@ -997,7 +991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8B1FF6-6F6A-4283-8BE5-E287DC140828}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169209F6-DE55-4D86-AE02-C8093A2D7416}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1604,10 +1598,10 @@
         <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -1616,13 +1610,13 @@
         <v>10696</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1637,7 +1631,7 @@
         <v>2089</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
@@ -1652,13 +1646,13 @@
         <v>4193</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -1667,13 +1661,13 @@
         <v>6282</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1729,7 +1723,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1741,10 +1735,10 @@
         <v>2929</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1756,13 +1750,13 @@
         <v>8010</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -1771,13 +1765,13 @@
         <v>10939</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1792,13 +1786,13 @@
         <v>1036</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -1807,13 +1801,13 @@
         <v>9497</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -1822,13 +1816,13 @@
         <v>10533</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1896,13 +1890,13 @@
         <v>11262</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -1911,13 +1905,13 @@
         <v>27093</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -1926,13 +1920,13 @@
         <v>38355</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1947,13 +1941,13 @@
         <v>14866</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>24</v>
@@ -1962,13 +1956,13 @@
         <v>25641</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>38</v>
@@ -1977,13 +1971,13 @@
         <v>40507</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2039,7 +2033,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2060,7 +2054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3994C064-B351-4A59-ABE0-3FE2DB07BD9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18F36DE-5A87-44F5-9714-31D281699323}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2077,7 +2071,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2184,7 +2178,7 @@
         <v>995</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -2197,13 +2191,13 @@
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2212,7 +2206,7 @@
         <v>995</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
@@ -2233,7 +2227,7 @@
         <v>2207</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -2246,13 +2240,13 @@
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2261,7 +2255,7 @@
         <v>2207</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
@@ -2295,13 +2289,13 @@
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -2354,7 +2348,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2369,7 +2363,7 @@
         <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,7 +2396,7 @@
         <v>13</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>20</v>
@@ -2417,7 +2411,7 @@
         <v>13</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>20</v>
@@ -2488,13 +2482,13 @@
         <v>1811</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -2503,13 +2497,13 @@
         <v>10885</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2518,13 +2512,13 @@
         <v>12696</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,10 +2533,10 @@
         <v>3836</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>13</v>
@@ -2554,13 +2548,13 @@
         <v>8994</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -2569,13 +2563,13 @@
         <v>12830</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,13 +2637,13 @@
         <v>2769</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2658,13 +2652,13 @@
         <v>1291</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -2673,13 +2667,13 @@
         <v>4060</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,13 +2688,13 @@
         <v>8539</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -2709,10 +2703,10 @@
         <v>6331</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>13</v>
@@ -2724,13 +2718,13 @@
         <v>14870</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,7 +2780,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2798,13 +2792,13 @@
         <v>4098</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2813,13 +2807,13 @@
         <v>3329</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2828,13 +2822,13 @@
         <v>7427</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,13 +2843,13 @@
         <v>8223</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -2864,13 +2858,13 @@
         <v>10995</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -2879,13 +2873,13 @@
         <v>19218</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2947,13 @@
         <v>9672</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -2968,13 +2962,13 @@
         <v>15505</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -2983,13 +2977,13 @@
         <v>25177</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +2998,13 @@
         <v>23861</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -3019,13 +3013,13 @@
         <v>30445</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M20" s="7">
         <v>47</v>
@@ -3034,13 +3028,13 @@
         <v>54306</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,7 +3090,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
